--- a/全栈进阶/项目实战.xlsx
+++ b/全栈进阶/项目实战.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Yii仿jd商城" sheetId="1" r:id="rId1"/>
     <sheet name="汽修小程序" sheetId="2" r:id="rId2"/>
     <sheet name="Egg.js+AntdPro+Mysql开发企业级CMS" sheetId="3" r:id="rId3"/>
     <sheet name="Three.js微信小游戏跳一跳" sheetId="4" r:id="rId4"/>
+    <sheet name="Canvans开发 Flappy Bird" sheetId="5" r:id="rId5"/>
+    <sheet name="Cheerio+Mysql+Nodemailer开发个性化新闻" sheetId="6" r:id="rId6"/>
+    <sheet name="React+Redux开发珠峰课堂" sheetId="8" r:id="rId7"/>
+    <sheet name="React+MongoDB+WebSocket开发聊天室" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,6 +23,176 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>脚手架生成项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  配置后台管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  后台首页实现布局模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  封装顶部导航</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  左侧权限菜单导航</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  全部删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  搜索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  为角色分配权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  为角色用户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  文章分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  文章管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  广告轮播图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  docker前后台部署</t>
+  </si>
+  <si>
+    <t>基础信息属性配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  集合体创建及相机镜头位置改变</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  更新相机坐标实现视觉动画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  绑定事件实现 jumper跳跃功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  回顾思路梳理逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  最终完成实现成功和失败的处理和重置操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  场景管理之场景</t>
+  </si>
+  <si>
+    <t>画布和画图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  background实现</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  实现大地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  绘制管道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  绘制小鸟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  碰撞检测</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  场景原理</t>
+  </si>
+  <si>
+    <t>用superagent + cheerio爬取网页内容</t>
+  </si>
+  <si>
+    <t>什么是实时通信</t>
+  </si>
+  <si>
+    <t>什么是webSocket</t>
+  </si>
+  <si>
+    <t>websocket和 http的对比</t>
+  </si>
+  <si>
+    <t>使用socket.io实现聊天室</t>
+  </si>
+  <si>
+    <t>匿名聊天</t>
+  </si>
+  <si>
+    <t>有用户名的聊天和用户列表</t>
+  </si>
+  <si>
+    <t>用户私聊</t>
+  </si>
+  <si>
+    <t>划分不同的聊天空间</t>
+  </si>
+  <si>
+    <t>消息持久化</t>
+  </si>
+  <si>
+    <t>支持QQ表情</t>
+  </si>
+  <si>
+    <t>数据持久化到mysql数据库</t>
+  </si>
+  <si>
+    <t>用户个性化邮箱订阅标签</t>
+  </si>
+  <si>
+    <t>数据更新，按兴趣分发推送邮件</t>
+  </si>
+  <si>
+    <t>用ElaStic实现全文检索</t>
+  </si>
+  <si>
+    <t>webpack环境搭建</t>
+  </si>
+  <si>
+    <t>底部页签导航</t>
+  </si>
+  <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>redux改变课程分类</t>
+  </si>
+  <si>
+    <t>实现头部轮播图</t>
+  </si>
+  <si>
+    <t>课程课表列表</t>
+  </si>
+  <si>
+    <t>下拉刷新</t>
+  </si>
+  <si>
+    <t>上拉加载</t>
+  </si>
+  <si>
+    <t>记录滚动条位置</t>
+  </si>
+  <si>
+    <t>课程详情</t>
+  </si>
+  <si>
+    <t>用户注册和登录</t>
+  </si>
+  <si>
+    <t>受保护的我的课程页面</t>
+  </si>
+  <si>
+    <t>Redux插件开发</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,12 +541,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -380,13 +625,292 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/全栈进阶/项目实战.xlsx
+++ b/全栈进阶/项目实战.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Yii仿jd商城" sheetId="1" r:id="rId1"/>
     <sheet name="汽修小程序" sheetId="2" r:id="rId2"/>
-    <sheet name="Egg.js+AntdPro+Mysql开发企业级CMS" sheetId="3" r:id="rId3"/>
-    <sheet name="Three.js微信小游戏跳一跳" sheetId="4" r:id="rId4"/>
-    <sheet name="Canvans开发 Flappy Bird" sheetId="5" r:id="rId5"/>
-    <sheet name="Cheerio+Mysql+Nodemailer开发个性化新闻" sheetId="6" r:id="rId6"/>
-    <sheet name="React+Redux开发珠峰课堂" sheetId="8" r:id="rId7"/>
-    <sheet name="React+MongoDB+WebSocket开发聊天室" sheetId="7" r:id="rId8"/>
+    <sheet name="Egg.js+AntdPro" sheetId="3" r:id="rId3"/>
+    <sheet name="Three.js跳一跳" sheetId="4" r:id="rId4"/>
+    <sheet name="Canvans" sheetId="5" r:id="rId5"/>
+    <sheet name="Cheerio爬虫新闻" sheetId="6" r:id="rId6"/>
+    <sheet name="React+Redux珠峰课堂" sheetId="8" r:id="rId7"/>
+    <sheet name="webSocket开发聊天室" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>脚手架生成项目</t>
   </si>
@@ -191,6 +191,26 @@
   </si>
   <si>
     <t>Redux插件开发</t>
+  </si>
+  <si>
+    <t>Egg+AntdPro+Mysql开发企业级CMS系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React+ MongoDB+ WebSocket开发聊天室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheerio+Mysql+Nodemailer开发个性化新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canvans开发 Flappy Bird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three.js微信小游戏跳一跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,10 +561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B15"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,6 +572,11 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
@@ -625,14 +650,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B9"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
@@ -676,14 +706,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B9"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
@@ -728,14 +763,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B7"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>27</v>
@@ -771,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,14 +890,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B12"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>28</v>
